--- a/zl.xlsx
+++ b/zl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19788" windowHeight="13644"/>
+    <workbookView windowWidth="19788" windowHeight="13644" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="置顶网站" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1381">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
@@ -1237,6 +1237,15 @@
   </si>
   <si>
     <t>设计百宝箱-全球高质量设计师网址导航大全</t>
+  </si>
+  <si>
+    <t>AI导航</t>
+  </si>
+  <si>
+    <t>http://nav.geekape.net/nav/page/home?id=ai</t>
+  </si>
+  <si>
+    <t>超全的ai导航网站</t>
   </si>
   <si>
     <t>https://cdn.h5ds.com/space/files/600972551685382144/20230815/615722555340984320.png</t>
@@ -6275,8 +6284,8 @@
   <sheetPr/>
   <dimension ref="A1:DI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
@@ -6329,7 +6338,7 @@
       </c>
       <c r="C1" s="39" t="str">
         <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>最后更新⌚ 2024年6月13日</v>
+        <v>最后更新⌚ 2024年6月14日</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>2</v>
@@ -7376,7 +7385,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7388,28 +7397,28 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="E2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="E3"/>
       <c r="I3" s="3"/>
@@ -7418,13 +7427,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3"/>
@@ -7434,14 +7443,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3"/>
@@ -7562,14 +7571,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7579,28 +7588,28 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
@@ -7609,28 +7618,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>46</v>
@@ -7639,16 +7648,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -7704,28 +7713,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>26</v>
@@ -7734,50 +7743,50 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>46</v>
@@ -7786,16 +7795,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
@@ -7804,142 +7813,142 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>1180</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>1177</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>26</v>
@@ -7947,78 +7956,78 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -8048,28 +8057,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8078,14 +8087,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
@@ -8094,140 +8103,140 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>46</v>
@@ -8235,55 +8244,55 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -8306,150 +8315,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8480,14 +8489,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8497,14 +8506,14 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -8516,16 +8525,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
@@ -8537,16 +8546,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>46</v>
@@ -8560,14 +8569,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -8579,16 +8588,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8600,46 +8609,46 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -8681,14 +8690,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8699,10 +8708,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8710,16 +8719,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
@@ -8727,112 +8736,112 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -9580,8 +9589,8 @@
   <sheetPr/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I10" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J9" sqref="K7 J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -9757,10 +9766,19 @@
         <v>324</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>326</v>
+      </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
@@ -9770,10 +9788,10 @@
         <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>26</v>
@@ -9786,31 +9804,31 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>46</v>
@@ -9818,78 +9836,78 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9907,6 +9925,9 @@
       <c r="E19" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H7" r:id="rId1" display="http://nav.geekape.net/nav/page/home?id=ai"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -9925,26 +9946,26 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="1"/>
@@ -9955,14 +9976,14 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="1"/>
@@ -9973,14 +9994,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -9991,14 +10012,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -10009,16 +10030,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -10029,14 +10050,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
@@ -10047,62 +10068,62 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
@@ -10165,70 +10186,70 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>46</v>
@@ -10237,74 +10258,74 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -10339,22 +10360,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -10363,133 +10384,133 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>46</v>
@@ -10498,286 +10519,286 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E7" s="7"/>
       <c r="G7" s="3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="32" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="3" t="s">
@@ -10787,10 +10808,10 @@
         <v>31</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>46</v>
@@ -10798,99 +10819,99 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -10901,14 +10922,14 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -10919,14 +10940,14 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="G23" s="33" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -10954,91 +10975,91 @@
   <sheetData>
     <row r="1" ht="14.4" spans="1:8">
       <c r="A1" s="28" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="3" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="3" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>26</v>
@@ -11046,130 +11067,130 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>46</v>
@@ -11177,29 +11198,29 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -11265,7 +11286,7 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" s="11" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>110</v>
@@ -11274,112 +11295,112 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
       <c r="P1" s="25"/>
       <c r="Q1" s="25"/>
       <c r="S1" s="4" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="3" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="S2" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AE2" s="4" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="AF2" s="23" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>46</v>
@@ -11387,513 +11408,513 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="24" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
       <c r="S3" s="3" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AE3" s="4" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="AF3" s="23" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="AM3" s="23" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="AO3" s="3"/>
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="24" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
       <c r="S4" s="3" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AF4" s="23" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AO4" s="3"/>
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="4" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="25" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="Q5" s="25"/>
       <c r="S5" s="24" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="AF5" s="23" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="AO5" s="3"/>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="4" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="25" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="Q6" s="25"/>
       <c r="S6" s="3" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AE6" s="4" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="AF6" s="23" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="AO6" s="3"/>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="4" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="25" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="Q7" s="25"/>
       <c r="S7" s="3" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AE7" s="4" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="AF7" s="23" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="AO7" s="3"/>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="4" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="Q8" s="25"/>
       <c r="S8" s="3" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AE8" s="4" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="AF8" s="23" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="4" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="AA9" s="15"/>
       <c r="AB9" s="3" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AE9" s="4" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AF9" s="23" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="AK9" s="3" t="s">
         <v>30</v>
@@ -11902,56 +11923,56 @@
         <v>31</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="AO9" s="3"/>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="4" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="4" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="Q10" s="25"/>
       <c r="Y10" s="3" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>46</v>
@@ -11966,7 +11987,7 @@
         <v>24</v>
       </c>
       <c r="AM10" s="17" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="AN10" s="19" t="s">
         <v>25</v>
@@ -11977,272 +11998,272 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="4" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="K11" s="3"/>
       <c r="M11" s="25" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="O11" s="25"/>
       <c r="P11" s="25" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AK11" s="4" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="AL11" s="23" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="AP11" s="27"/>
       <c r="AQ11" s="25"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="3" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="3" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="K12" s="3"/>
       <c r="Y12" s="4" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="AA12" s="17" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="AL12" s="23" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="3" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="Z13" s="14" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="4" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="AL14" s="23" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12306,170 +12327,170 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>110</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="Y1" s="4" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="3" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="W2" s="3"/>
       <c r="Y2" s="3" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="3" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="8" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="K3" s="8"/>
       <c r="M3" s="3" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>26</v>
@@ -12477,523 +12498,523 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="3" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="8" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="K4" s="8"/>
       <c r="M4" s="3" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="W4" s="3"/>
       <c r="Y4" s="3" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="AC4" s="3"/>
     </row>
     <row r="5" ht="15.6" spans="1:29">
       <c r="A5" s="3" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="8" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="K5" s="8"/>
       <c r="M5" s="3" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="W5" s="3"/>
       <c r="Y5" s="3" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="3" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="8" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="K6" s="8"/>
       <c r="M6" s="3" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="W6" s="3"/>
       <c r="Y6" s="3" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="3" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="W7" s="3"/>
       <c r="Y7" s="3" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="3" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="W8" s="3"/>
       <c r="Y8" s="3" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="3" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="3" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="W9" s="3"/>
       <c r="Y9" s="3" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="3" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="W10" s="3"/>
       <c r="Y10" s="3" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="3" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="U11" s="15"/>
       <c r="V11" s="3" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="W11" s="3"/>
       <c r="Y11" s="3" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="3" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="K12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="W12"/>
       <c r="Y12" s="3" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="3" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="4" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -13001,29 +13022,29 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="Y13" s="3" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="3" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="E14" s="3"/>
       <c r="M14"/>
@@ -13032,136 +13053,136 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="Y14" s="4" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="18" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="19" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="19" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="26" spans="5:5">

--- a/zl.xlsx
+++ b/zl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19788" windowHeight="13644" activeTab="2"/>
+    <workbookView windowWidth="19788" windowHeight="13644" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="置顶网站" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="1390">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
@@ -2928,6 +2928,9 @@
     <t>https://www.istockphoto.com</t>
   </si>
   <si>
+    <t>一个免费高质量照片资源平台，提供多种主题和风格的照片，供个人和商业项目使用。</t>
+  </si>
+  <si>
     <t>PNG素材网</t>
   </si>
   <si>
@@ -3774,6 +3777,18 @@
   </si>
   <si>
     <t>室友小白推荐：不限速单文件传输最大10G (免注册)</t>
+  </si>
+  <si>
+    <t>Qwerty Learner</t>
+  </si>
+  <si>
+    <t>https://qwerty.z-l.top</t>
+  </si>
+  <si>
+    <t>https://qwerty.z-l.top/favicon.ico</t>
+  </si>
+  <si>
+    <t>为键盘工作者设计的单词记忆与英语肌肉记忆锻炼软件</t>
   </si>
   <si>
     <t>💎 3D参考</t>
@@ -4849,6 +4864,18 @@
     <t>在线解析抖音/头条/快手/小红书等短视频信息，通过短视频分享链接一键解析无水印视频链接</t>
   </si>
   <si>
+    <t>短视频/图集在线去水印解析</t>
+  </si>
+  <si>
+    <t>https://watermark.liumingye.cn/</t>
+  </si>
+  <si>
+    <t>https://fastly.jsdelivr.net/gh/5ime/img/avatar.jpg</t>
+  </si>
+  <si>
+    <t>抖音快手等16个平台视频去水印下载</t>
+  </si>
+  <si>
     <t>🙇 友情链接 &lt;span&gt;&lt;a target="_blank" href="https://blog.z-l.top/posts/djly.html"&gt;点我申请友情链接&lt;/a&gt;  共同进步！&lt;/span&gt;</t>
   </si>
   <si>
@@ -5072,6 +5099,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="9"/>
       <color rgb="FF0000FF"/>
       <name val="等线 Light"/>
@@ -5094,13 +5128,6 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5330,18 +5357,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -5668,14 +5689,14 @@
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5699,16 +5720,16 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5717,89 +5738,89 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5823,19 +5844,23 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5844,19 +5869,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -5864,32 +5878,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -5900,7 +5900,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -5913,13 +5913,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5934,30 +5934,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -6290,106 +6282,106 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="5" width="9" style="19"/>
-    <col min="6" max="6" width="9" style="35"/>
-    <col min="7" max="11" width="9" style="19"/>
-    <col min="12" max="12" width="9" style="35"/>
-    <col min="13" max="17" width="9" style="19"/>
-    <col min="18" max="18" width="9" style="35"/>
-    <col min="19" max="23" width="9" style="19"/>
-    <col min="24" max="24" width="9" style="35"/>
-    <col min="25" max="29" width="9" style="19"/>
-    <col min="30" max="30" width="9" style="35"/>
-    <col min="31" max="35" width="9" style="19"/>
-    <col min="36" max="36" width="9" style="35"/>
-    <col min="37" max="41" width="9" style="19"/>
-    <col min="42" max="42" width="9" style="35"/>
-    <col min="43" max="47" width="9" style="19"/>
-    <col min="48" max="48" width="9" style="35"/>
-    <col min="49" max="53" width="9" style="19"/>
-    <col min="54" max="54" width="9" style="35"/>
-    <col min="55" max="59" width="9" style="19"/>
-    <col min="60" max="60" width="9" style="36"/>
-    <col min="61" max="65" width="9" style="19"/>
-    <col min="66" max="66" width="9" style="35"/>
-    <col min="67" max="71" width="9" style="19"/>
-    <col min="72" max="72" width="9" style="35"/>
-    <col min="73" max="77" width="9" style="19"/>
-    <col min="78" max="78" width="9" style="35"/>
-    <col min="79" max="83" width="9" style="19"/>
-    <col min="84" max="84" width="9" style="35"/>
-    <col min="85" max="89" width="9" style="19"/>
-    <col min="90" max="90" width="9" style="35"/>
-    <col min="91" max="95" width="9" style="19"/>
-    <col min="96" max="96" width="9" style="37"/>
-    <col min="97" max="101" width="9" style="19"/>
-    <col min="102" max="102" width="9" style="37"/>
-    <col min="103" max="107" width="9" style="19"/>
-    <col min="108" max="108" width="9" style="37"/>
-    <col min="109" max="16384" width="9" style="19"/>
+    <col min="1" max="5" width="9" style="17"/>
+    <col min="6" max="6" width="9" style="29"/>
+    <col min="7" max="11" width="9" style="17"/>
+    <col min="12" max="12" width="9" style="29"/>
+    <col min="13" max="17" width="9" style="17"/>
+    <col min="18" max="18" width="9" style="29"/>
+    <col min="19" max="23" width="9" style="17"/>
+    <col min="24" max="24" width="9" style="29"/>
+    <col min="25" max="29" width="9" style="17"/>
+    <col min="30" max="30" width="9" style="29"/>
+    <col min="31" max="35" width="9" style="17"/>
+    <col min="36" max="36" width="9" style="29"/>
+    <col min="37" max="41" width="9" style="17"/>
+    <col min="42" max="42" width="9" style="29"/>
+    <col min="43" max="47" width="9" style="17"/>
+    <col min="48" max="48" width="9" style="29"/>
+    <col min="49" max="53" width="9" style="17"/>
+    <col min="54" max="54" width="9" style="29"/>
+    <col min="55" max="59" width="9" style="17"/>
+    <col min="60" max="60" width="9" style="30"/>
+    <col min="61" max="65" width="9" style="17"/>
+    <col min="66" max="66" width="9" style="29"/>
+    <col min="67" max="71" width="9" style="17"/>
+    <col min="72" max="72" width="9" style="29"/>
+    <col min="73" max="77" width="9" style="17"/>
+    <col min="78" max="78" width="9" style="29"/>
+    <col min="79" max="83" width="9" style="17"/>
+    <col min="84" max="84" width="9" style="29"/>
+    <col min="85" max="89" width="9" style="17"/>
+    <col min="90" max="90" width="9" style="29"/>
+    <col min="91" max="95" width="9" style="17"/>
+    <col min="96" max="96" width="9" style="31"/>
+    <col min="97" max="101" width="9" style="17"/>
+    <col min="102" max="102" width="9" style="31"/>
+    <col min="103" max="107" width="9" style="17"/>
+    <col min="108" max="108" width="9" style="31"/>
+    <col min="109" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:109">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="str">
+      <c r="C1" s="33" t="str">
         <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>最后更新⌚ 2024年6月14日</v>
-      </c>
-      <c r="D1" s="40" t="s">
+        <v>最后更新⌚ 2024年6月22日</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BN1" s="36"/>
-      <c r="BO1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CY1" s="13"/>
-      <c r="DE1" s="13"/>
-    </row>
-    <row r="2" s="19" customFormat="1" ht="13.8" spans="1:113">
-      <c r="A2" s="19" t="s">
+      <c r="M1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="BC1" s="14"/>
+      <c r="BI1" s="14"/>
+      <c r="BN1" s="30"/>
+      <c r="BO1" s="14"/>
+      <c r="BU1" s="14"/>
+      <c r="CA1" s="14"/>
+      <c r="CG1" s="14"/>
+      <c r="CM1" s="14"/>
+      <c r="CS1" s="14"/>
+      <c r="CY1" s="14"/>
+      <c r="DE1" s="14"/>
+    </row>
+    <row r="2" s="17" customFormat="1" ht="13.8" spans="1:113">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -6398,76 +6390,76 @@
       <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BH2" s="36"/>
-      <c r="BN2" s="36"/>
-      <c r="BT2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CF2" s="35"/>
-      <c r="CL2" s="35"/>
-      <c r="CR2" s="37"/>
-      <c r="CX2" s="37"/>
-      <c r="DD2" s="37"/>
-      <c r="DI2" s="19" t="s">
+      <c r="L2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="BB2" s="29"/>
+      <c r="BH2" s="30"/>
+      <c r="BN2" s="30"/>
+      <c r="BT2" s="29"/>
+      <c r="BZ2" s="29"/>
+      <c r="CF2" s="29"/>
+      <c r="CL2" s="29"/>
+      <c r="CR2" s="31"/>
+      <c r="CX2" s="31"/>
+      <c r="DD2" s="31"/>
+      <c r="DI2" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:111">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="43"/>
+      <c r="K3" s="36"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="Q3" s="43"/>
+      <c r="Q3" s="36"/>
       <c r="T3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="47"/>
-      <c r="AC3" s="43"/>
+      <c r="AA3" s="39"/>
+      <c r="AC3" s="36"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
-      <c r="AI3" s="43"/>
+      <c r="AI3" s="36"/>
       <c r="AL3" s="5"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AX3" s="4"/>
-      <c r="AY3" s="47"/>
-      <c r="BA3" s="43"/>
+      <c r="AY3" s="39"/>
+      <c r="BA3" s="36"/>
       <c r="BD3" s="5"/>
       <c r="BE3" s="5"/>
       <c r="BJ3" s="4"/>
-      <c r="BK3" s="45"/>
-      <c r="BN3" s="36"/>
+      <c r="BK3" s="38"/>
+      <c r="BN3" s="30"/>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
       <c r="BV3" s="4"/>
@@ -6479,56 +6471,56 @@
       <c r="CO3" s="4"/>
       <c r="CT3" s="4"/>
       <c r="CU3" s="4"/>
-      <c r="CX3" s="49"/>
+      <c r="CX3" s="41"/>
       <c r="CZ3" s="4"/>
       <c r="DA3" s="4"/>
-      <c r="DD3" s="49"/>
+      <c r="DD3" s="41"/>
       <c r="DF3" s="4"/>
       <c r="DG3" s="4"/>
     </row>
     <row r="4" ht="13.8" spans="1:111">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="19" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="43"/>
+      <c r="K4" s="36"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="Q4" s="45"/>
+      <c r="Q4" s="38"/>
       <c r="T4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="45"/>
-      <c r="AC4" s="45"/>
+      <c r="AA4" s="38"/>
+      <c r="AC4" s="38"/>
       <c r="AF4" s="4"/>
       <c r="AL4" s="5"/>
       <c r="AR4" s="4"/>
-      <c r="AS4" s="47"/>
-      <c r="AU4" s="43"/>
+      <c r="AS4" s="39"/>
+      <c r="AU4" s="36"/>
       <c r="AX4" s="4"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="5"/>
-      <c r="BG4" s="43"/>
+      <c r="BG4" s="36"/>
       <c r="BJ4" s="4"/>
-      <c r="BK4" s="45"/>
+      <c r="BK4" s="38"/>
       <c r="BP4" s="5"/>
       <c r="BQ4" s="4"/>
       <c r="BV4" s="4"/>
@@ -6539,50 +6531,50 @@
       <c r="CO4" s="5"/>
       <c r="CT4" s="4"/>
       <c r="CU4" s="4"/>
-      <c r="CV4" s="50"/>
+      <c r="CV4" s="42"/>
       <c r="CZ4" s="5"/>
       <c r="DA4" s="5"/>
       <c r="DF4" s="4"/>
       <c r="DG4" s="4"/>
     </row>
     <row r="5" ht="13.8" spans="1:111">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="G5" s="19" t="s">
+      <c r="E5" s="36"/>
+      <c r="G5" s="17" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="43"/>
+      <c r="K5" s="36"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="Q5" s="43"/>
+      <c r="Q5" s="36"/>
       <c r="T5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
-      <c r="AU5" s="43"/>
+      <c r="AU5" s="36"/>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="48"/>
+      <c r="BF5" s="40"/>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
       <c r="BP5" s="4"/>
@@ -6600,17 +6592,17 @@
       <c r="DG5" s="4"/>
     </row>
     <row r="6" ht="45.6" spans="1:112">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -6619,16 +6611,16 @@
       <c r="I6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="43"/>
+      <c r="K6" s="36"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="Q6" s="43"/>
+      <c r="Q6" s="36"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="47"/>
-      <c r="W6" s="43"/>
+      <c r="U6" s="39"/>
+      <c r="W6" s="36"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AF6" s="4"/>
@@ -6637,9 +6629,9 @@
       <c r="AX6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="4"/>
-      <c r="BG6" s="43"/>
+      <c r="BG6" s="36"/>
       <c r="BJ6" s="4"/>
-      <c r="BK6" s="45"/>
+      <c r="BK6" s="38"/>
       <c r="BP6" s="4"/>
       <c r="BV6" s="4"/>
       <c r="BW6" s="4"/>
@@ -6650,25 +6642,25 @@
       <c r="CU6" s="5"/>
       <c r="CZ6" s="5"/>
       <c r="DA6" s="5"/>
-      <c r="DF6" s="20"/>
-      <c r="DG6" s="20"/>
-      <c r="DH6" s="50"/>
+      <c r="DF6" s="18"/>
+      <c r="DG6" s="18"/>
+      <c r="DH6" s="42"/>
     </row>
     <row r="7" ht="13.8" spans="1:110">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -6677,16 +6669,16 @@
       <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="43"/>
+      <c r="K7" s="36"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="45"/>
-      <c r="Q7" s="43"/>
+      <c r="O7" s="38"/>
+      <c r="Q7" s="36"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="45"/>
-      <c r="W7" s="45"/>
+      <c r="U7" s="38"/>
+      <c r="W7" s="38"/>
       <c r="Z7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AL7" s="4"/>
@@ -6707,21 +6699,21 @@
       <c r="CU7" s="4"/>
       <c r="CZ7" s="5"/>
       <c r="DA7" s="5"/>
-      <c r="DF7" s="20"/>
+      <c r="DF7" s="18"/>
     </row>
     <row r="8" ht="13.8" spans="1:111">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="G8" s="19" t="s">
+      <c r="E8" s="36"/>
+      <c r="G8" s="17" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -6730,12 +6722,12 @@
       <c r="I8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="17" t="s">
         <v>57</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="Q8" s="43"/>
+      <c r="Q8" s="36"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="Z8" s="4"/>
@@ -6745,7 +6737,7 @@
       <c r="AM8" s="4"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
-      <c r="AU8" s="45"/>
+      <c r="AU8" s="38"/>
       <c r="AX8" s="4"/>
       <c r="BD8" s="4"/>
       <c r="BE8" s="4"/>
@@ -6762,11 +6754,11 @@
       <c r="CU8" s="4"/>
       <c r="CZ8" s="4"/>
       <c r="DA8" s="4"/>
-      <c r="DF8" s="20"/>
-      <c r="DG8" s="20"/>
+      <c r="DF8" s="18"/>
+      <c r="DG8" s="18"/>
     </row>
     <row r="9" ht="13.8" spans="1:111">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -6775,10 +6767,10 @@
       <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -6787,12 +6779,12 @@
       <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="17" t="s">
         <v>65</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="Q9" s="43"/>
+      <c r="Q9" s="36"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="Z9" s="4"/>
@@ -6811,36 +6803,36 @@
       <c r="CB9" s="4"/>
       <c r="CH9" s="4"/>
       <c r="CT9" s="4"/>
-      <c r="CU9" s="20"/>
+      <c r="CU9" s="18"/>
       <c r="CZ9" s="4"/>
       <c r="DA9" s="4"/>
-      <c r="DF9" s="20"/>
-      <c r="DG9" s="20"/>
+      <c r="DF9" s="18"/>
+      <c r="DG9" s="18"/>
     </row>
     <row r="10" ht="13.8" spans="1:105">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>69</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>70</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="17" t="s">
         <v>71</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="Q10" s="43"/>
+      <c r="Q10" s="36"/>
       <c r="T10" s="4"/>
       <c r="U10" s="5"/>
       <c r="Z10" s="4"/>
@@ -6849,7 +6841,7 @@
       <c r="AG10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-      <c r="AO10" s="43"/>
+      <c r="AO10" s="36"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AX10" s="4"/>
@@ -6858,7 +6850,7 @@
       <c r="BJ10" s="4"/>
       <c r="BK10" s="4"/>
       <c r="BP10" s="4"/>
-      <c r="BQ10" s="20"/>
+      <c r="BQ10" s="18"/>
       <c r="BV10" s="4"/>
       <c r="CB10" s="4"/>
       <c r="CH10" s="4"/>
@@ -6867,40 +6859,40 @@
       <c r="DA10" s="4"/>
     </row>
     <row r="11" ht="13.8" spans="1:111">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="19" t="s">
+      <c r="I11" s="39"/>
+      <c r="J11" s="17" t="s">
         <v>76</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="Q11" s="43"/>
+      <c r="Q11" s="36"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="45"/>
-      <c r="AO11" s="45"/>
+      <c r="AM11" s="38"/>
+      <c r="AO11" s="38"/>
       <c r="AR11" s="4"/>
       <c r="AS11" s="4"/>
       <c r="AX11" s="4"/>
@@ -6909,35 +6901,35 @@
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BP11" s="5"/>
-      <c r="BQ11" s="20"/>
+      <c r="BQ11" s="18"/>
       <c r="BV11" s="4"/>
       <c r="CB11" s="4"/>
       <c r="CH11" s="4"/>
       <c r="CT11" s="4"/>
       <c r="CZ11" s="4"/>
       <c r="DA11" s="4"/>
-      <c r="DF11" s="20"/>
-      <c r="DG11" s="20"/>
+      <c r="DF11" s="18"/>
+      <c r="DG11" s="18"/>
     </row>
     <row r="12" ht="13.8" spans="1:99">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>80</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="19" t="s">
+      <c r="I12" s="39"/>
+      <c r="J12" s="17" t="s">
         <v>82</v>
       </c>
       <c r="N12" s="5"/>
@@ -6955,20 +6947,20 @@
       <c r="CB12" s="4"/>
       <c r="CH12" s="4"/>
       <c r="CT12" s="4"/>
-      <c r="CU12" s="20"/>
+      <c r="CU12" s="18"/>
     </row>
     <row r="13" ht="13.8" spans="1:98">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -6977,7 +6969,7 @@
       <c r="I13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="17" t="s">
         <v>89</v>
       </c>
       <c r="N13" s="4"/>
@@ -6987,18 +6979,18 @@
       <c r="AS13" s="4"/>
       <c r="AX13" s="4"/>
       <c r="BD13" s="4"/>
-      <c r="BE13" s="45"/>
+      <c r="BE13" s="38"/>
       <c r="BP13" s="5"/>
       <c r="BV13" s="4"/>
       <c r="BW13" s="4"/>
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
       <c r="CH13" s="4"/>
-      <c r="CN13" s="20"/>
+      <c r="CN13" s="18"/>
       <c r="CT13" s="4"/>
     </row>
     <row r="14" ht="13.8" spans="7:99">
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -7007,10 +6999,10 @@
       <c r="I14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="17" t="s">
         <v>46</v>
       </c>
       <c r="N14" s="4"/>
@@ -7027,18 +7019,18 @@
       <c r="CC14" s="4"/>
       <c r="CH14" s="4"/>
       <c r="CI14" s="5"/>
-      <c r="CN14" s="20"/>
+      <c r="CN14" s="18"/>
       <c r="CT14" s="5"/>
       <c r="CU14" s="5"/>
     </row>
     <row r="15" ht="13.8" spans="7:99">
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>94</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="17" t="s">
         <v>96</v>
       </c>
       <c r="N15" s="4"/>
@@ -7049,7 +7041,7 @@
       <c r="AR15" s="4"/>
       <c r="AX15" s="4"/>
       <c r="BD15" s="4"/>
-      <c r="BE15" s="45"/>
+      <c r="BE15" s="38"/>
       <c r="BP15" s="4"/>
       <c r="BV15" s="4"/>
       <c r="CB15" s="4"/>
@@ -7058,14 +7050,14 @@
       <c r="CU15" s="5"/>
     </row>
     <row r="16" ht="13.8" spans="7:98">
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>97</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="19" t="s">
+      <c r="I16" s="18"/>
+      <c r="J16" s="17" t="s">
         <v>99</v>
       </c>
       <c r="N16" s="4"/>
@@ -7084,13 +7076,13 @@
       <c r="CT16" s="5"/>
     </row>
     <row r="17" ht="13.8" spans="7:86">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>100</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="17" t="s">
         <v>102</v>
       </c>
       <c r="N17" s="4"/>
@@ -7101,16 +7093,16 @@
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
       <c r="BD17" s="4"/>
-      <c r="BE17" s="45"/>
+      <c r="BE17" s="38"/>
       <c r="BJ17" s="4"/>
-      <c r="BK17" s="45"/>
+      <c r="BK17" s="38"/>
       <c r="BP17" s="4"/>
       <c r="BV17" s="4"/>
       <c r="CB17" s="4"/>
       <c r="CH17" s="4"/>
     </row>
     <row r="18" ht="13.8" spans="7:86">
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>103</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -7119,7 +7111,7 @@
       <c r="I18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="17" t="s">
         <v>106</v>
       </c>
       <c r="N18" s="4"/>
@@ -7155,7 +7147,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="T20" s="5"/>
-      <c r="AF20" s="45"/>
+      <c r="AF20" s="38"/>
       <c r="AL20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
@@ -7170,7 +7162,7 @@
     <row r="21" ht="13.8" spans="14:80">
       <c r="N21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="AX21" s="31"/>
+      <c r="AX21" s="25"/>
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
       <c r="BV21" s="4"/>
@@ -7205,29 +7197,29 @@
       <c r="CB25" s="4"/>
     </row>
     <row r="26" ht="13.8" spans="2:80">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="E26" s="43"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="E26" s="36"/>
       <c r="T26" s="4"/>
-      <c r="BD26" s="31"/>
-      <c r="BE26" s="45"/>
+      <c r="BD26" s="25"/>
+      <c r="BE26" s="38"/>
       <c r="BV26" s="4"/>
       <c r="BW26" s="4"/>
       <c r="CB26" s="4"/>
     </row>
     <row r="27" ht="13.8" spans="2:81">
-      <c r="B27" s="45"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
       <c r="T27" s="4"/>
       <c r="BD27" s="4"/>
-      <c r="BE27" s="45"/>
+      <c r="BE27" s="38"/>
       <c r="BV27" s="4"/>
       <c r="CB27" s="4"/>
       <c r="CC27" s="4"/>
     </row>
     <row r="28" ht="13.8" spans="2:81">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="BV28" s="4"/>
@@ -7241,8 +7233,8 @@
       <c r="CB29" s="4"/>
     </row>
     <row r="30" ht="13.8" spans="2:81">
-      <c r="B30" s="45"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="18"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="BV30" s="4"/>
@@ -7250,8 +7242,8 @@
       <c r="CC30" s="4"/>
     </row>
     <row r="31" ht="13.8" spans="2:80">
-      <c r="B31" s="45"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="18"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="BV31" s="4"/>
@@ -7261,7 +7253,7 @@
     <row r="32" ht="13.8" spans="19:80">
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="BU32" s="18"/>
+      <c r="BU32" s="16"/>
       <c r="BV32" s="4"/>
       <c r="CB32" s="4"/>
     </row>
@@ -7288,7 +7280,7 @@
       <c r="T36" s="5"/>
       <c r="BV36" s="4"/>
       <c r="CB36" s="4"/>
-      <c r="CC36" s="45"/>
+      <c r="CC36" s="38"/>
     </row>
     <row r="37" ht="13.8" spans="74:80">
       <c r="BV37" s="4"/>
@@ -7308,7 +7300,7 @@
     </row>
     <row r="40" ht="13.8" spans="74:80">
       <c r="BV40" s="5"/>
-      <c r="BW40" s="22"/>
+      <c r="BW40" s="20"/>
       <c r="CB40" s="4"/>
     </row>
     <row r="41" ht="13.8" spans="73:80">
@@ -7325,7 +7317,7 @@
     </row>
     <row r="43" ht="13.8" spans="74:80">
       <c r="BV43" s="5"/>
-      <c r="CB43" s="31"/>
+      <c r="CB43" s="25"/>
     </row>
     <row r="44" ht="13.8" spans="74:74">
       <c r="BV44" s="5"/>
@@ -7344,12 +7336,12 @@
       <c r="CB48" s="4"/>
     </row>
     <row r="49" ht="13.8" spans="80:81">
-      <c r="CB49" s="31"/>
+      <c r="CB49" s="25"/>
       <c r="CC49" s="4"/>
     </row>
     <row r="50" ht="13.8" spans="80:81">
-      <c r="CB50" s="31"/>
-      <c r="CC50" s="20"/>
+      <c r="CB50" s="25"/>
+      <c r="CC50" s="18"/>
     </row>
     <row r="52" ht="13.8" spans="74:75">
       <c r="BV52" s="5"/>
@@ -7377,48 +7369,48 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="13"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="12"/>
+    <col min="12" max="12" width="8.88888888888889" style="13"/>
     <col min="13" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
-        <v>1119</v>
+      <c r="A1" s="14" t="s">
+        <v>1124</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="E2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1123</v>
+        <v>1128</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="E3"/>
       <c r="I3" s="3"/>
@@ -7427,15 +7419,15 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E4" s="9"/>
+        <v>1133</v>
+      </c>
+      <c r="E4" s="10"/>
       <c r="G4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -7443,25 +7435,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>1136</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="G5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="10"/>
       <c r="G6" s="3"/>
       <c r="I6" s="15"/>
       <c r="J6" s="3"/>
@@ -7470,7 +7462,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="G7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -7479,7 +7471,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="10"/>
       <c r="G8" s="3"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -7489,14 +7481,14 @@
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
@@ -7536,7 +7528,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="14"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
@@ -7570,15 +7562,15 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
-        <v>1132</v>
+      <c r="A1" s="12" t="s">
+        <v>1137</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7588,28 +7580,28 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1135</v>
+        <v>1140</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1136</v>
+        <v>1141</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1137</v>
+        <v>1142</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
@@ -7618,28 +7610,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1140</v>
+        <v>1145</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1143</v>
+        <v>1148</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1145</v>
+        <v>1150</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>46</v>
@@ -7648,16 +7640,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -7713,98 +7705,98 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1151</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>1152</v>
+      <c r="A2" s="9" t="s">
+        <v>1157</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1158</v>
+        <v>1163</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1160</v>
+        <v>1164</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>1165</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1162</v>
+        <v>1167</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1164</v>
+        <v>1168</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>1169</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1167</v>
+        <v>1172</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E5" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1171</v>
+        <v>1176</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
@@ -7813,142 +7805,142 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1173</v>
+        <v>1178</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1174</v>
+        <v>1179</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1175</v>
+        <v>1180</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1179</v>
+        <v>1184</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1186</v>
+        <v>1191</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1187</v>
+        <v>1192</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1188</v>
+        <v>1193</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1189</v>
+        <v>1194</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1190</v>
+        <v>1195</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1192</v>
+        <v>1197</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1194</v>
+        <v>1199</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1195</v>
+        <v>1200</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1198</v>
+        <v>1203</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1199</v>
+        <v>1204</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1201</v>
+        <v>1206</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1203</v>
+        <v>1208</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1207</v>
+        <v>1212</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>26</v>
@@ -7956,78 +7948,78 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1228</v>
+        <v>1233</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -8057,28 +8049,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1231</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1232</v>
+        <v>1237</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1233</v>
+        <v>1238</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8087,14 +8079,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1238</v>
+        <v>1243</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
@@ -8103,140 +8095,140 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1241</v>
+        <v>1246</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1256</v>
+        <v>1261</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1259</v>
+        <v>1264</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1260</v>
+        <v>1265</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1263</v>
+        <v>1268</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1264</v>
+        <v>1269</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>46</v>
@@ -8244,55 +8236,55 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1271</v>
+        <v>1276</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1272</v>
+        <v>1277</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>1273</v>
+        <v>1278</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1275</v>
+        <v>1280</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1276</v>
+        <v>1281</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1278</v>
+        <v>1283</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1279</v>
+        <v>1284</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -8315,150 +8307,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1281</v>
+        <v>1286</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1283</v>
+        <v>1288</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C2" s="7"/>
+        <v>1289</v>
+      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="3" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1286</v>
+        <v>1291</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C3" s="7"/>
+        <v>1292</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1289</v>
+        <v>1294</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1290</v>
+        <v>1295</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1293</v>
+        <v>1298</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>1299</v>
+      </c>
+      <c r="C5" s="8"/>
       <c r="D5" s="3" t="s">
-        <v>1293</v>
+        <v>1298</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1297</v>
+        <v>1302</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1301</v>
+        <v>1306</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1308</v>
+        <v>1313</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1310</v>
+        <v>1315</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1311</v>
+        <v>1316</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1312</v>
+        <v>1317</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1313</v>
+        <v>1318</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1314</v>
+        <v>1319</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8482,21 +8474,21 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8506,14 +8498,14 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1318</v>
+        <v>1323</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -8525,16 +8517,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1320</v>
+        <v>1325</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1322</v>
+        <v>1327</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
@@ -8546,16 +8538,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1323</v>
+        <v>1328</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1324</v>
+        <v>1329</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>46</v>
@@ -8569,14 +8561,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>1325</v>
+        <v>1330</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1326</v>
+        <v>1331</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>1327</v>
+        <v>1332</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -8588,16 +8580,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1329</v>
+        <v>1334</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1331</v>
+        <v>1336</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8609,55 +8601,63 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1332</v>
+        <v>1337</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1333</v>
+        <v>1338</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1334</v>
+        <v>1339</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1335</v>
+        <v>1340</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1336</v>
+        <v>1341</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1339</v>
+        <v>1344</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1340</v>
+        <v>1345</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1341</v>
+        <v>1346</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1351</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
@@ -8669,6 +8669,10 @@
       <c r="E11" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="https://watermark.liumingye.cn/"/>
+    <hyperlink ref="C10" r:id="rId2" display="https://fastly.jsdelivr.net/gh/5ime/img/avatar.jpg"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8690,14 +8694,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1344</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8708,10 +8712,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1345</v>
+        <v>1354</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1346</v>
+        <v>1355</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8719,16 +8723,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>1347</v>
+        <v>1356</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1348</v>
+        <v>1357</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1349</v>
+        <v>1358</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1350</v>
+        <v>1359</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
@@ -8736,112 +8740,112 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>1351</v>
+        <v>1360</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1352</v>
+        <v>1361</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1353</v>
+        <v>1362</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1354</v>
+        <v>1363</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1355</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>1356</v>
+        <v>1365</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1357</v>
+        <v>1366</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1358</v>
+        <v>1367</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1359</v>
+        <v>1368</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1360</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>1361</v>
+        <v>1370</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1362</v>
+        <v>1371</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1363</v>
+        <v>1372</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1364</v>
+        <v>1373</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1365</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1368</v>
+        <v>1377</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>1369</v>
+        <v>1378</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1370</v>
+        <v>1379</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1371</v>
+        <v>1380</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1372</v>
+        <v>1381</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>1373</v>
+        <v>1382</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1374</v>
+        <v>1383</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1375</v>
+        <v>1384</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1376</v>
+        <v>1385</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>1377</v>
+        <v>1386</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1378</v>
+        <v>1387</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1379</v>
+        <v>1388</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1380</v>
+        <v>1389</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -8898,30 +8902,30 @@
   <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="13"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="12"/>
+    <col min="12" max="12" width="8.88888888888889" style="13"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="12"/>
+    <col min="18" max="18" width="8.88888888888889" style="13"/>
     <col min="19" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>107</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -9039,11 +9043,11 @@
       <c r="B5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="10"/>
       <c r="G5" s="3" t="s">
         <v>141</v>
       </c>
@@ -9074,11 +9078,11 @@
       <c r="B6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="G6" s="3" t="s">
         <v>150</v>
       </c>
@@ -9528,7 +9532,7 @@
         <v>267</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="26" t="s">
         <v>268</v>
       </c>
       <c r="E25" s="3"/>
@@ -9589,19 +9593,19 @@
   <sheetPr/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="K7 J9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="13"/>
     <col min="7" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>281</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -9610,7 +9614,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>283</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -9633,7 +9637,7 @@
       <c r="D2" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
       <c r="G2" s="3" t="s">
         <v>290</v>
       </c>
@@ -9659,7 +9663,7 @@
       <c r="D3" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="G3" s="3" t="s">
         <v>297</v>
       </c>
@@ -9685,7 +9689,7 @@
       <c r="D4" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="G4" s="3" t="s">
         <v>303</v>
       </c>
@@ -9711,7 +9715,7 @@
       <c r="D5" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="10"/>
       <c r="G5" s="3" t="s">
         <v>310</v>
       </c>
@@ -9733,11 +9737,11 @@
       <c r="B6" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="10"/>
       <c r="G6" s="3" t="s">
         <v>317</v>
       </c>
@@ -9750,7 +9754,7 @@
       <c r="J6" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
@@ -9765,11 +9769,11 @@
       <c r="D7" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="G7" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="6" t="s">
         <v>326</v>
       </c>
       <c r="I7" s="3"/>
@@ -9793,7 +9797,7 @@
       <c r="D8" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="3"/>
@@ -9815,7 +9819,7 @@
       <c r="D9" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
@@ -9925,9 +9929,6 @@
       <c r="E19" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1" display="http://nav.geekape.net/nav/page/home?id=ai"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -9963,11 +9964,11 @@
       <c r="B2" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -9981,11 +9982,11 @@
       <c r="B3" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -10209,7 +10210,7 @@
       <c r="D2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
@@ -10416,11 +10417,11 @@
       <c r="B3" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -10449,7 +10450,7 @@
       <c r="D4" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="G4" s="3" t="s">
         <v>446</v>
       </c>
@@ -10530,7 +10531,7 @@
       <c r="D7" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="G7" s="3" t="s">
         <v>465</v>
       </c>
@@ -10599,7 +10600,7 @@
       <c r="J9" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
@@ -10622,15 +10623,15 @@
       <c r="H10" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="26" t="s">
         <v>491</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -10939,7 +10940,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="27" t="s">
         <v>565</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -10974,7 +10975,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.4" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>568</v>
       </c>
       <c r="B1" s="3"/>
@@ -10984,7 +10985,7 @@
       <c r="F1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="23" t="s">
         <v>570</v>
       </c>
       <c r="H1" t="s">
@@ -10998,11 +10999,11 @@
       <c r="B2" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
       <c r="G2" s="3" t="s">
         <v>575</v>
       </c>
@@ -11231,7 +11232,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="31"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -11259,33 +11260,33 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ50"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="13"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="12"/>
+    <col min="12" max="12" width="8.88888888888889" style="13"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="12"/>
+    <col min="18" max="18" width="8.88888888888889" style="13"/>
     <col min="19" max="23" width="8.88888888888889" style="4"/>
-    <col min="24" max="24" width="8.88888888888889" style="12"/>
+    <col min="24" max="24" width="8.88888888888889" style="13"/>
     <col min="25" max="29" width="8.88888888888889" style="4"/>
-    <col min="30" max="30" width="8.88888888888889" style="12"/>
+    <col min="30" max="30" width="8.88888888888889" style="13"/>
     <col min="31" max="35" width="8.88888888888889" style="4"/>
-    <col min="36" max="36" width="8.88888888888889" style="12"/>
+    <col min="36" max="36" width="8.88888888888889" style="13"/>
     <col min="37" max="41" width="8.88888888888889" style="4"/>
-    <col min="42" max="42" width="8.88888888888889" style="12"/>
+    <col min="42" max="42" width="8.88888888888889" style="13"/>
     <col min="43" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>628</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -11294,19 +11295,15 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>629</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
       <c r="S1" s="4" t="s">
         <v>632</v>
       </c>
@@ -11345,21 +11342,18 @@
       <c r="G2" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="5" t="s">
         <v>643</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
       <c r="S2" s="3" t="s">
         <v>647</v>
       </c>
@@ -11386,7 +11380,7 @@
       <c r="AE2" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="AF2" s="23" t="s">
+      <c r="AF2" s="5" t="s">
         <v>655</v>
       </c>
       <c r="AH2" s="4" t="s">
@@ -11407,7 +11401,7 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>660</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -11423,7 +11417,7 @@
       <c r="G3" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="5" t="s">
         <v>664</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -11432,15 +11426,12 @@
       <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
       <c r="S3" s="3" t="s">
         <v>668</v>
       </c>
@@ -11465,7 +11456,7 @@
       <c r="AE3" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="AF3" s="23" t="s">
+      <c r="AF3" s="5" t="s">
         <v>675</v>
       </c>
       <c r="AK3" s="3" t="s">
@@ -11474,7 +11465,7 @@
       <c r="AL3" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="AM3" s="23" t="s">
+      <c r="AM3" s="5" t="s">
         <v>678</v>
       </c>
       <c r="AN3" s="3" t="s">
@@ -11483,10 +11474,10 @@
       <c r="AO3" s="3"/>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="5" t="s">
         <v>681</v>
       </c>
       <c r="C4" s="3"/>
@@ -11497,21 +11488,18 @@
       <c r="G4" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="5" t="s">
         <v>684</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
       <c r="S4" s="3" t="s">
         <v>688</v>
       </c>
@@ -11540,7 +11528,7 @@
       <c r="AE4" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="AF4" s="23" t="s">
+      <c r="AF4" s="5" t="s">
         <v>696</v>
       </c>
       <c r="AH4" s="4" t="s">
@@ -11562,7 +11550,7 @@
       <c r="A5" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="5" t="s">
         <v>702</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -11571,24 +11559,22 @@
       <c r="G5" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="5" t="s">
         <v>705</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="Q5" s="25"/>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="21" t="s">
         <v>660</v>
       </c>
       <c r="T5" s="4" t="s">
@@ -11614,7 +11600,7 @@
       <c r="AE5" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="AF5" s="23" t="s">
+      <c r="AF5" s="5" t="s">
         <v>714</v>
       </c>
       <c r="AH5" s="4" t="s">
@@ -11638,7 +11624,7 @@
       <c r="A6" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="5" t="s">
         <v>721</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -11647,20 +11633,21 @@
       <c r="G6" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="J6" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="Q6" s="25"/>
       <c r="S6" s="3" t="s">
         <v>728</v>
       </c>
@@ -11685,7 +11672,7 @@
       <c r="AE6" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="AF6" s="23" t="s">
+      <c r="AF6" s="5" t="s">
         <v>734</v>
       </c>
       <c r="AH6" s="4" t="s">
@@ -11707,7 +11694,7 @@
       <c r="A7" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="5" t="s">
         <v>740</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -11716,23 +11703,21 @@
       <c r="G7" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="5" t="s">
         <v>743</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25" t="s">
+      <c r="P7" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="Q7" s="25"/>
       <c r="S7" s="3" t="s">
         <v>748</v>
       </c>
@@ -11757,7 +11742,7 @@
       <c r="AE7" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="AF7" s="23" t="s">
+      <c r="AF7" s="5" t="s">
         <v>755</v>
       </c>
       <c r="AH7" s="4" t="s">
@@ -11781,7 +11766,7 @@
       <c r="A8" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="5" t="s">
         <v>762</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -11800,17 +11785,15 @@
       <c r="K8" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="Q8" s="25"/>
       <c r="S8" s="3" t="s">
         <v>771</v>
       </c>
@@ -11837,7 +11820,7 @@
       <c r="AE8" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="AF8" s="23" t="s">
+      <c r="AF8" s="5" t="s">
         <v>779</v>
       </c>
       <c r="AH8" s="4" t="s">
@@ -11858,7 +11841,7 @@
       <c r="A9" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="5" t="s">
         <v>785</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -11878,7 +11861,7 @@
       <c r="M9" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="5" t="s">
         <v>791</v>
       </c>
       <c r="P9" s="4" t="s">
@@ -11910,7 +11893,7 @@
       <c r="AE9" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="AF9" s="23" t="s">
+      <c r="AF9" s="5" t="s">
         <v>801</v>
       </c>
       <c r="AH9" s="4" t="s">
@@ -11930,11 +11913,11 @@
       </c>
       <c r="AO9" s="3"/>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:41">
       <c r="A10" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="5" t="s">
         <v>805</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -11944,7 +11927,7 @@
       <c r="G10" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="5" t="s">
         <v>808</v>
       </c>
       <c r="I10" s="3"/>
@@ -11955,13 +11938,12 @@
       <c r="M10" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="5" t="s">
         <v>811</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="Q10" s="25"/>
       <c r="Y10" s="3" t="s">
         <v>813</v>
       </c>
@@ -11980,27 +11962,25 @@
       <c r="AE10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AK10" s="19" t="s">
+      <c r="AK10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AL10" s="26" t="s">
+      <c r="AL10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AM10" s="17" t="s">
+      <c r="AM10" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="AN10" s="19" t="s">
+      <c r="AN10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="27"/>
-      <c r="AQ10" s="25"/>
-    </row>
-    <row r="11" spans="1:43">
+      <c r="AO10" s="17"/>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="5" t="s">
         <v>819</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -12010,7 +11990,7 @@
       <c r="G11" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="5" t="s">
         <v>822</v>
       </c>
       <c r="I11" s="3"/>
@@ -12018,14 +11998,13 @@
         <v>823</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25" t="s">
+      <c r="P11" s="4" t="s">
         <v>826</v>
       </c>
       <c r="Y11" s="3" t="s">
@@ -12042,23 +12021,21 @@
       <c r="AK11" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="AL11" s="23" t="s">
+      <c r="AL11" s="5" t="s">
         <v>831</v>
       </c>
       <c r="AN11" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="25"/>
-    </row>
-    <row r="12" spans="1:38">
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" s="3" t="s">
         <v>833</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="3" t="s">
         <v>835</v>
       </c>
@@ -12068,7 +12045,7 @@
       <c r="G12" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="5" t="s">
         <v>837</v>
       </c>
       <c r="I12" s="3"/>
@@ -12079,10 +12056,10 @@
       <c r="Y12" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="Z12" s="17" t="s">
+      <c r="Z12" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="AA12" s="17" t="s">
+      <c r="AA12" s="6" t="s">
         <v>841</v>
       </c>
       <c r="AB12" s="4" t="s">
@@ -12091,179 +12068,182 @@
       <c r="AK12" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="AL12" s="23" t="s">
+      <c r="AL12" s="5" t="s">
         <v>844</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="H13" s="23" t="s">
         <v>849</v>
       </c>
+      <c r="H13" s="5" t="s">
+        <v>850</v>
+      </c>
       <c r="J13" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="Z13" s="14" t="s">
         <v>852</v>
       </c>
+      <c r="Z13" s="7" t="s">
+        <v>853</v>
+      </c>
       <c r="AB13" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="B14" s="23" t="s">
         <v>858</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>859</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="H14" s="23" t="s">
         <v>861</v>
       </c>
+      <c r="H14" s="5" t="s">
+        <v>862</v>
+      </c>
       <c r="J14" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="AL14" s="23" t="s">
         <v>864</v>
       </c>
+      <c r="AL14" s="5" t="s">
+        <v>865</v>
+      </c>
       <c r="AN14" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="B15" s="23" t="s">
         <v>867</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="H15" s="23" t="s">
         <v>870</v>
       </c>
+      <c r="H15" s="5" t="s">
+        <v>871</v>
+      </c>
       <c r="J15" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="B16" s="23" t="s">
         <v>873</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>874</v>
+      </c>
       <c r="D16" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="H16" s="23" t="s">
         <v>876</v>
       </c>
+      <c r="H16" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="J16" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="H17" s="23" t="s">
         <v>882</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="B18" s="23" t="s">
         <v>884</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>885</v>
+      </c>
       <c r="D18" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="H18" s="23" t="s">
         <v>887</v>
       </c>
+      <c r="H18" s="5" t="s">
+        <v>888</v>
+      </c>
       <c r="J18" s="4" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="B19" s="23" t="s">
         <v>890</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>891</v>
+      </c>
       <c r="D19" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12309,188 +12289,188 @@
   <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="13"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="12"/>
+    <col min="12" max="12" width="8.88888888888889" style="13"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="12"/>
+    <col min="18" max="18" width="8.88888888888889" style="13"/>
     <col min="19" max="23" width="8.88888888888889" style="4"/>
-    <col min="24" max="24" width="8.88888888888889" style="16"/>
+    <col min="24" max="24" width="8.88888888888889" style="13"/>
     <col min="25" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
-        <v>897</v>
+      <c r="F1" s="13" t="s">
+        <v>898</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>110</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="Y1" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="H2" s="17" t="s">
         <v>908</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="6" t="s">
         <v>909</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>910</v>
+      </c>
       <c r="J2" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="W2" s="3"/>
       <c r="Y2" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" s="8" t="s">
-        <v>925</v>
+      <c r="G3" s="9" t="s">
+        <v>926</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="K3" s="9"/>
       <c r="M3" s="3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>26</v>
@@ -12498,523 +12478,523 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="G4" s="8" t="s">
-        <v>942</v>
+      <c r="G4" s="9" t="s">
+        <v>943</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="J4" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="J4" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="K4" s="9"/>
       <c r="M4" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="W4" s="3"/>
       <c r="Y4" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AC4" s="3"/>
     </row>
     <row r="5" ht="15.6" spans="1:29">
       <c r="A5" s="3" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="G5" s="8" t="s">
-        <v>958</v>
+      <c r="G5" s="9" t="s">
+        <v>959</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="J5" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="J5" s="19" t="s">
+        <v>961</v>
+      </c>
+      <c r="K5" s="9"/>
       <c r="M5" s="3" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>964</v>
+        <v>950</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>965</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="W5" s="3"/>
       <c r="Y5" s="3" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="G6" s="8" t="s">
-        <v>972</v>
+      <c r="G6" s="9" t="s">
+        <v>973</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="J6" s="8" t="s">
         <v>975</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="J6" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="K6" s="9"/>
       <c r="M6" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="W6" s="3"/>
       <c r="Y6" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="3" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="W7" s="3"/>
       <c r="Y7" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="W8" s="3"/>
       <c r="Y8" s="3" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I9" s="22"/>
+        <v>1023</v>
+      </c>
+      <c r="I9" s="20"/>
       <c r="J9" s="3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="W9" s="3"/>
       <c r="Y9" s="3" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="W10" s="3"/>
       <c r="Y10" s="3" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="3" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="U11" s="15"/>
       <c r="V11" s="3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="W11" s="3"/>
       <c r="Y11" s="3" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="3" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="K12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="W12"/>
       <c r="Y12" s="3" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="3" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H13" s="14" t="s">
         <v>1075</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="6" t="s">
         <v>1076</v>
       </c>
+      <c r="I13" s="6" t="s">
+        <v>1077</v>
+      </c>
       <c r="J13" s="4" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -13022,29 +13002,29 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="Y13" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E14" s="3"/>
       <c r="M14"/>
@@ -13053,136 +13033,150 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="Y14" s="4" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18" t="s">
-        <v>1092</v>
+      <c r="A16" s="16" t="s">
+        <v>1093</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="19" t="s">
-        <v>1116</v>
+      <c r="A23" s="17" t="s">
+        <v>1117</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="19" t="s">
         <v>1118</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="26" spans="5:5">
@@ -13195,7 +13189,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="19"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3"/>
@@ -13205,10 +13199,6 @@
       <c r="E45" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H13" r:id="rId1" display="http://znsoft.x3322.net:88"/>
-    <hyperlink ref="I13" r:id="rId2" display="https://cdn.h5ds.com/space/files/600972551685382144/20240613/725728370223452160.png"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
